--- a/Section 13/aula-gerenciador-cenarios.xlsx
+++ b/Section 13/aula-gerenciador-cenarios.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Google Drive\Curso_Excel\12 Ferramentas de análise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cursos\Excel\Section 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF5E7DE-EE7B-4A10-AD9B-80D99623869F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21361E65-B9D8-46CE-99BE-14BFA04C2B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4430C8C5-1BA6-4289-86B7-BC19EE26AF37}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4430C8C5-1BA6-4289-86B7-BC19EE26AF37}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cenários" sheetId="1" r:id="rId1"/>
+    <sheet name="Scenario Summary" sheetId="2" r:id="rId1"/>
+    <sheet name="Cenários" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>GERENCIADOR DE CENÁRIOS</t>
   </si>
@@ -87,6 +99,51 @@
   <si>
     <t>Variáveis</t>
   </si>
+  <si>
+    <t>$C$7</t>
+  </si>
+  <si>
+    <t>$C$8</t>
+  </si>
+  <si>
+    <t>$F$13</t>
+  </si>
+  <si>
+    <t>Low price, low public</t>
+  </si>
+  <si>
+    <t>Created by MENEZES Rafael on 21/09/2023</t>
+  </si>
+  <si>
+    <t>Preço alto, publico baixo</t>
+  </si>
+  <si>
+    <t>preço baixo, publico alto</t>
+  </si>
+  <si>
+    <t>preço alto, publico alto</t>
+  </si>
+  <si>
+    <t>Scenario Summary</t>
+  </si>
+  <si>
+    <t>Changing Cells:</t>
+  </si>
+  <si>
+    <t>Current Values:</t>
+  </si>
+  <si>
+    <t>Result Cells:</t>
+  </si>
+  <si>
+    <t>Notes:  Current Values column represents values of changing cells at</t>
+  </si>
+  <si>
+    <t>time Scenario Summary Report was created.  Changing cells for each</t>
+  </si>
+  <si>
+    <t>scenario are highlighted in gray.</t>
+  </si>
 </sst>
 </file>
 
@@ -96,7 +153,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +190,46 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +242,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -197,12 +310,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -234,27 +385,58 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="40" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -271,7 +453,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -566,81 +748,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CA38EC-655E-4C91-BD86-5AB6D72C374E}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:H12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="20.109375" bestFit="1" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="20.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="18">
+        <v>190</v>
+      </c>
+      <c r="E6" s="29">
+        <v>100</v>
+      </c>
+      <c r="F6" s="29">
+        <v>190</v>
+      </c>
+      <c r="G6" s="29">
+        <v>100</v>
+      </c>
+      <c r="H6" s="29">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="19">
+        <v>300</v>
+      </c>
+      <c r="E7" s="30">
+        <v>100</v>
+      </c>
+      <c r="F7" s="30">
+        <v>100</v>
+      </c>
+      <c r="G7" s="30">
+        <v>300</v>
+      </c>
+      <c r="H7" s="30">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="20">
+        <v>25005</v>
+      </c>
+      <c r="E9" s="20">
+        <v>-18950</v>
+      </c>
+      <c r="F9" s="20">
+        <v>-10265</v>
+      </c>
+      <c r="G9" s="20">
+        <v>-1050</v>
+      </c>
+      <c r="H9" s="20">
+        <v>25005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C319CA7F-77A9-4D19-B255-A1F58F239FD6}">
   <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="26.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="2:6" s="9" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="16"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="15"/>
+      <c r="E6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="5">
-        <v>150</v>
-      </c>
-      <c r="E7" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="5">
         <f>C7*C8</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
@@ -655,46 +1007,64 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="5">
         <f>200*INT(C8/30)</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="5">
         <f>3000+(F8*1%)</f>
-        <v>3150</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="5">
         <f>F8*2.5%</f>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="8">
         <f>F8-SUM(F9:F12)</f>
-        <v>-14125</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25005</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F14" s="1"/>
     </row>
   </sheetData>
+  <scenarios current="3" show="3" sqref="F13">
+    <scenario name="Low price, low public" locked="1" count="2" user="MENEZES Rafael" comment="Created by MENEZES Rafael on 21/09/2023">
+      <inputCells r="C7" val="100" numFmtId="40"/>
+      <inputCells r="C8" val="100" numFmtId="1"/>
+    </scenario>
+    <scenario name="Preço alto, publico baixo" locked="1" count="2" user="MENEZES Rafael" comment="Created by MENEZES Rafael on 21/09/2023">
+      <inputCells r="C7" val="190" numFmtId="40"/>
+      <inputCells r="C8" val="100" numFmtId="1"/>
+    </scenario>
+    <scenario name="preço baixo, publico alto" locked="1" count="2" user="MENEZES Rafael" comment="Created by MENEZES Rafael on 21/09/2023">
+      <inputCells r="C7" val="100" numFmtId="40"/>
+      <inputCells r="C8" val="300" numFmtId="1"/>
+    </scenario>
+    <scenario name="preço alto, publico alto" locked="1" count="2" user="MENEZES Rafael" comment="Created by MENEZES Rafael on 21/09/2023">
+      <inputCells r="C7" val="190" numFmtId="40"/>
+      <inputCells r="C8" val="300" numFmtId="1"/>
+    </scenario>
+  </scenarios>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
